--- a/src/main/java/org/example/ShujuData/User.xlsx
+++ b/src/main/java/org/example/ShujuData/User.xlsx
@@ -7,21 +7,56 @@
     <workbookView windowWidth="17568" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="PasswordUser" sheetId="2" r:id="rId2"/>
-    <sheet name="Shophistory" sheetId="3" r:id="rId3"/>
+    <sheet name="ShopChat" sheetId="2" r:id="rId1"/>
+    <sheet name="小白" r:id="rId5" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>xiaobai</t>
-  </si>
-  <si>
-    <t>@SYC123xiaobai</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>生产厂家</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+  </si>
+  <si>
+    <t>商品型号</t>
+  </si>
+  <si>
+    <t>购买价格</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>2023-08-19 01:59:42</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -960,59 +995,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/java/org/example/ShujuData/User.xlsx
+++ b/src/main/java/org/example/ShujuData/User.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>商品编号</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2023-08-18 18:59:04</t>
+  </si>
+  <si>
+    <t>2023-08-19 12:12:53</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2023-08-19 12:19:43</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1010,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1027,6 +1042,75 @@
       </c>
     </row>
     <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
